--- a/src/test/java/TestData/BasicTestsData/SimpleFormDemoData.xlsx
+++ b/src/test/java/TestData/BasicTestsData/SimpleFormDemoData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\SeleniumEasyFramework_Project\src\test\java\TestData\BasicTestsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390CED9E-49E2-422F-8F74-780EB3667EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033569E-2AD9-4741-AAD4-98EC3846BE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2295" windowWidth="21645" windowHeight="11385" xr2:uid="{300FF490-2F95-4F97-A0FF-E1AC052BC45D}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21645" windowHeight="11385" activeTab="1" xr2:uid="{300FF490-2F95-4F97-A0FF-E1AC052BC45D}"/>
   </bookViews>
   <sheets>
     <sheet name="singleInputData" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>value1</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>d1</t>
+  </si>
+  <si>
+    <t>Faile</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Failed for Raport Purpoose</t>
+  </si>
+  <si>
+    <t>Raport</t>
   </si>
 </sst>
 </file>
@@ -413,13 +425,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111AE7DC-9401-4FC9-8F83-A87F207B9D5E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -459,6 +474,14 @@
       </c>
       <c r="B5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -468,17 +491,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04848286-262A-4B03-85B2-7525D08F2BAA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,6 +550,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/TestData/BasicTestsData/SimpleFormDemoData.xlsx
+++ b/src/test/java/TestData/BasicTestsData/SimpleFormDemoData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\SeleniumEasyFramework_Project\src\test\java\TestData\BasicTestsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033569E-2AD9-4741-AAD4-98EC3846BE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5275BEF2-DB2D-44F8-A3EA-C12F25FFEEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21645" windowHeight="11385" activeTab="1" xr2:uid="{300FF490-2F95-4F97-A0FF-E1AC052BC45D}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21645" windowHeight="11385" xr2:uid="{300FF490-2F95-4F97-A0FF-E1AC052BC45D}"/>
   </bookViews>
   <sheets>
     <sheet name="singleInputData" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>value1</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Raport</t>
+  </si>
+  <si>
+    <t>15fg</t>
+  </si>
+  <si>
+    <t>M1ATG</t>
   </si>
 </sst>
 </file>
@@ -425,9 +431,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111AE7DC-9401-4FC9-8F83-A87F207B9D5E}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -478,9 +484,25 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -491,10 +513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04848286-262A-4B03-85B2-7525D08F2BAA}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,13 +573,24 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
